--- a/webroot/files/Los Empresarios_UOP854.xlsx
+++ b/webroot/files/Los Empresarios_UOP854.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Tipo de Simulación</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Cut to lenght</t>
   </si>
   <si>
-    <t>Primer Raleo</t>
+    <t>Segundo Raleo</t>
   </si>
   <si>
     <t>Emsefor</t>
@@ -41,7 +41,7 @@
     <t>Fecha de Simulacion</t>
   </si>
   <si>
-    <t>2018-12-12 00:00:00</t>
+    <t>2019-05-08 00:00:00</t>
   </si>
   <si>
     <t>ID Rodal</t>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Masset 5874</t>
-  </si>
-  <si>
-    <t>Bubu Bububu</t>
   </si>
   <si>
     <t>Extraccion</t>
@@ -550,10 +547,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,13 +634,13 @@
         <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -671,251 +668,217 @@
         <v>23</v>
       </c>
       <c r="C11" s="3">
-        <v>158.71</v>
+        <v>325.11</v>
       </c>
       <c r="D11" s="3">
-        <v>119.03</v>
+        <v>243.83</v>
       </c>
       <c r="E11" s="3">
-        <v>52376.57</v>
+        <v>107287.95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37.68</v>
+      </c>
+      <c r="D12" s="3">
+        <v>33.53</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8854.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3">
-        <v>158.71</v>
-      </c>
-      <c r="D12" s="3">
-        <v>141.25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>24861.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3">
-        <v>27.92</v>
-      </c>
-      <c r="D13" s="3">
-        <v>24.85</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6561.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3">
+        <v>23897364.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25250364.5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>17418358.18</v>
+      </c>
+      <c r="D17" s="3">
+        <v>717826.56</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18136184.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3">
-        <v>23897364.5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1353000</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="B21" s="3">
+        <v>107287.95</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="E21" s="3">
         <v>25250364.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3">
-        <v>251218.31</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4851035.2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5102253.51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3">
-        <v>17418358.18</v>
-      </c>
-      <c r="D19" s="3">
-        <v>717826.56</v>
-      </c>
-      <c r="E19" s="3">
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8854.391196</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>18136184.74</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>77237.982861</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3">
-        <v>8.49</v>
-      </c>
-      <c r="E23" s="3">
-        <v>30352618.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="3">
-        <v>6561.039693</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="3">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>18136184.74</v>
-      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="B27" s="3">
+        <v>8854.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3">
+        <v>51.84</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3">
-        <v>6561.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
-        <v>60</v>
+        <v>355788.64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>4900.56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3">
-        <v>-39587.76</v>
+        <v>5194.6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3">
-        <v>7391.17</v>
+        <v>779.19</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3">
-        <v>7834.64</v>
+        <v>5973.79</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3">
-        <v>1175.19</v>
+        <v>7467.24</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3">
-        <v>9009.84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="3">
-        <v>11262.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="3">
-        <v>-9004.84</v>
+        <v>-5623.79</v>
       </c>
     </row>
   </sheetData>
